--- a/idis/expdata/99999.xlsx
+++ b/idis/expdata/99999.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B510EB5-18E2-B94D-869E-6EEC108B89ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F5F72F-8A22-C949-A5B9-B84A2935B0AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,19 +75,19 @@
     <t>*norm_c</t>
   </si>
   <si>
-    <t>BONUS</t>
-  </si>
-  <si>
     <t>e_minus</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t>h/d</t>
+    <t>F2t/F2d</t>
   </si>
   <si>
-    <t>F2t/F2d</t>
+    <t>MARATHON</t>
+  </si>
+  <si>
+    <t>t/d</t>
   </si>
 </sst>
 </file>
@@ -559,12 +559,12 @@
   <dimension ref="A1:M1085"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="13" width="8.5" style="1" customWidth="1"/>
     <col min="14" max="1025" width="8.5" customWidth="1"/>
   </cols>
@@ -612,7 +612,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>4.2</v>
@@ -624,16 +624,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M65" si="0">0.045*J2</f>
+        <f t="shared" ref="M2" si="0">0.045*J2</f>
         <v>2.2499999999999999E-4</v>
       </c>
     </row>
